--- a/experiments/evaluation/llm-based/albert-base-v2_15/original_remove/rem5/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/original_remove/rem5/incorrect_predictions.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,17 +491,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution and land in a safe place ASAP</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19-28</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,26 +562,26 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-28</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Aircraft in Altitude Zone</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Max altitude set to nnn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -741,17 +741,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>19-28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,26 +787,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -891,22 +891,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-14</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
